--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6572985</v>
+        <v>3.127167</v>
       </c>
       <c r="H2">
-        <v>1.314597</v>
+        <v>6.254334</v>
       </c>
       <c r="I2">
-        <v>0.01243471895593424</v>
+        <v>0.05125946301206413</v>
       </c>
       <c r="J2">
-        <v>0.00838789245732586</v>
+        <v>0.03534869238469427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.127815637116</v>
+        <v>0.608096386152</v>
       </c>
       <c r="R2">
-        <v>0.766893822696</v>
+        <v>3.648578316912</v>
       </c>
       <c r="S2">
-        <v>0.01243471895593424</v>
+        <v>0.05125946301206413</v>
       </c>
       <c r="T2">
-        <v>0.00838789245732586</v>
+        <v>0.03534869238469427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>3.600936</v>
       </c>
       <c r="I3">
-        <v>0.02270740368255115</v>
+        <v>0.01967510803450431</v>
       </c>
       <c r="J3">
-        <v>0.02297606332108863</v>
+        <v>0.02035202772365075</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>2.100670832448</v>
       </c>
       <c r="S3">
-        <v>0.02270740368255115</v>
+        <v>0.01967510803450431</v>
       </c>
       <c r="T3">
-        <v>0.02297606332108863</v>
+        <v>0.02035202772365075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.76714533333334</v>
+        <v>8.963585</v>
       </c>
       <c r="H4">
-        <v>53.301436</v>
+        <v>26.890755</v>
       </c>
       <c r="I4">
-        <v>0.3361173939530345</v>
+        <v>0.1469280514161837</v>
       </c>
       <c r="J4">
-        <v>0.3400941223728923</v>
+        <v>0.151983093081882</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.454928012938667</v>
+        <v>1.74302288476</v>
       </c>
       <c r="R4">
-        <v>31.094352116448</v>
+        <v>15.68720596284</v>
       </c>
       <c r="S4">
-        <v>0.3361173939530345</v>
+        <v>0.1469280514161837</v>
       </c>
       <c r="T4">
-        <v>0.3400941223728923</v>
+        <v>0.151983093081882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.196979</v>
+        <v>2.9601755</v>
       </c>
       <c r="H5">
-        <v>2.393958</v>
+        <v>5.920351</v>
       </c>
       <c r="I5">
-        <v>0.02264435026271202</v>
+        <v>0.04852219486566225</v>
       </c>
       <c r="J5">
-        <v>0.01527484259537707</v>
+        <v>0.03346106336956375</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.232759748424</v>
+        <v>0.5756238870279999</v>
       </c>
       <c r="R5">
-        <v>1.396558490544</v>
+        <v>3.453743322168</v>
       </c>
       <c r="S5">
-        <v>0.02264435026271202</v>
+        <v>0.04852219486566225</v>
       </c>
       <c r="T5">
-        <v>0.01527484259537707</v>
+        <v>0.03346106336956375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.485586</v>
+        <v>31.10563533333334</v>
       </c>
       <c r="H6">
-        <v>4.456758</v>
+        <v>93.316906</v>
       </c>
       <c r="I6">
-        <v>0.02810419374891397</v>
+        <v>0.5098730460623802</v>
       </c>
       <c r="J6">
-        <v>0.02843670479418916</v>
+        <v>0.5274151659449962</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.288881111216</v>
+        <v>6.048677424378667</v>
       </c>
       <c r="R6">
-        <v>2.599930000944</v>
+        <v>54.438096819408</v>
       </c>
       <c r="S6">
-        <v>0.02810419374891397</v>
+        <v>0.5098730460623802</v>
       </c>
       <c r="T6">
-        <v>0.02843670479418916</v>
+        <v>0.5274151659449962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.55261933333334</v>
+        <v>13.64975333333333</v>
       </c>
       <c r="H7">
-        <v>91.657858</v>
+        <v>40.94926</v>
       </c>
       <c r="I7">
-        <v>0.577991939396854</v>
+        <v>0.2237421366092054</v>
       </c>
       <c r="J7">
-        <v>0.5848303744591269</v>
+        <v>0.2314399574952131</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>5.941140145082667</v>
+        <v>2.654276434186667</v>
       </c>
       <c r="R7">
-        <v>53.470261305744</v>
+        <v>23.88848790768</v>
       </c>
       <c r="S7">
-        <v>0.577991939396854</v>
+        <v>0.2237421366092054</v>
       </c>
       <c r="T7">
-        <v>0.5848303744591269</v>
+        <v>0.2314399574952131</v>
       </c>
     </row>
   </sheetData>
